--- a/Routes.xlsx
+++ b/Routes.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a1131bd7c92ce12/Documents/INSA/2A/Informatique/Projet/project-INSAMaps/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="205" documentId="11_AD4D9D64A577C15A4A541880209E52BC5ADEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE6A0CF3-6E8B-4521-8B85-4F9160951B87}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,175 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+  <si>
+    <t>Résidence C</t>
+  </si>
+  <si>
+    <t>Résidence D</t>
+  </si>
+  <si>
+    <t>Le Galilée</t>
+  </si>
+  <si>
+    <t>La Rotonde</t>
+  </si>
+  <si>
+    <t>Humanités</t>
+  </si>
+  <si>
+    <t>BMC</t>
+  </si>
+  <si>
+    <t>INSA Direction</t>
+  </si>
+  <si>
+    <t>Louis Neel</t>
+  </si>
+  <si>
+    <t>J. D'Alembert</t>
+  </si>
+  <si>
+    <t>P. de Fermat</t>
+  </si>
+  <si>
+    <t>(158,633);(70,630)</t>
+  </si>
+  <si>
+    <t>(145,538);(152,505);(180,506);(180,633);(158,633)</t>
+  </si>
+  <si>
+    <t>(145,538);(145,499);(110,499);(110,581);(83,581);(83,630);(70,630)</t>
+  </si>
+  <si>
+    <t>(262,294);(237,284);(241,328);(270,368);(267,470);(109,476);(111,580);(82,580);(83,630);(70,630)</t>
+  </si>
+  <si>
+    <t>(279,328);(270,368);(267,470);(109,476);(111,580);(82,580);(83,630);(70,630)</t>
+  </si>
+  <si>
+    <t>(488,428);(488,463);(109,476);(111,580);(82,580);(83,630);(70,630)</t>
+  </si>
+  <si>
+    <t>(750,475);(750,478);(553,478);(537,465);(420,461);(414,471);(305,469);(296,474);(109,476);(111,580);(82,580);(83,630);(70,630)</t>
+  </si>
+  <si>
+    <t>(746,383);(746,372);(715,370);(708,379);(697,420);(672,415);(653,476);(553,478);(537,465);(420,461);(414,471);(305,469);(296,474);(109,476);(111,580);(82,580);(83,630);(70,630)</t>
+  </si>
+  <si>
+    <t>(813,390);(813,354);(787,355);(775,370);(715,370);(708,379);(697,420);(672,415);(653,476);(553,478);(537,465);(420,461);(414,471);(305,469);(296,474);(109,476);(111,580);(82,580);(83,630);(70,630)</t>
+  </si>
+  <si>
+    <t>(262,294);(237,284);(241,328);(270,368);(267,470);(183,473);(181,633);(158,633)</t>
+  </si>
+  <si>
+    <t>(279,328);(270,368);(267,470);(183,473);(181,633);(158,633)</t>
+  </si>
+  <si>
+    <t>(488,428);(488,463);(181,473);(181,633);(158,633)</t>
+  </si>
+  <si>
+    <t>(750,475);(750,478);(553,478);(537,465);(420,461);(414,471);(305,469);(296,474);(181,473);(181,633);(158,633)</t>
+  </si>
+  <si>
+    <t>(746,383);(746,372);(715,370);(708,379);(697,420);(672,415);(653,476);(553,478);(537,465);(420,461);(414,471);(305,469);(296,474);(181,473);(181,633);(158,633)</t>
+  </si>
+  <si>
+    <t>(813,390);(813,354);(787,355);(775,370);(715,370);(708,379);(697,420);(672,415);(653,476);(553,478);(537,465);(420,461);(414,471);(305,469);(296,474);(181,473);(181,633);(158,633)</t>
+  </si>
+  <si>
+    <t>(262,294);(237,284);(241,328);(270,368);(267,470);(145,471);(145,538)</t>
+  </si>
+  <si>
+    <t>(279,328);(270,368);(267,470);(145,471);(145,538)</t>
+  </si>
+  <si>
+    <t>(374,451);(374,469);(305,469);(296,474);(145,471);(145,538)</t>
+  </si>
+  <si>
+    <t>(374,451);(374,469);(305,469);(296,474);(109,476);(111,580);(175,580);(175,633);(158,633)</t>
+  </si>
+  <si>
+    <t>(374,451);(374,469);(305,469);(296,474);(109,476);(111,580);(82,580);(83,630);(70,630)</t>
+  </si>
+  <si>
+    <t>(488,428);(488,463);(420,461);(414,471);(305,469);(296,474);(145,471);(145,538)</t>
+  </si>
+  <si>
+    <t>(750,475);(750,478);(553,478);(537,465);(420,461);(414,471);(305,469);(296,474);(145,471);(145,538)</t>
+  </si>
+  <si>
+    <t>(746,383);(746,372);(715,370);(708,379);(697,420);(672,415);(653,476);(553,478);(537,465);(420,461);(414,471);(305,469);(296,474);(145,471);(145,538)</t>
+  </si>
+  <si>
+    <t>(813,390);(813,354);(787,355);(775,370);(715,370);(708,379);(697,420);(672,415);(653,476);(553,478);(537,465);(420,461);(414,471);(305,469);(296,474);(145,471);(145,538)</t>
+  </si>
+  <si>
+    <t>(279,328);(262,294)</t>
+  </si>
+  <si>
+    <t>(374,451);(374,469);(305,469);(296,474);(269,472);(269,365);(262,294)</t>
+  </si>
+  <si>
+    <t>(488,428);(488,463);(420,461);(414,471);(305,469);(296,474);(269,472);(269,365);(262,294)</t>
+  </si>
+  <si>
+    <t>(750,475);(750,478);(553,478);(537,465);(420,461);(414,471);(305,469);(296,474);(269,472);(269,365);(262,294)</t>
+  </si>
+  <si>
+    <t>(746,383);(746,372);(715,370);(708,379);(697,420);(672,415);(653,476);(553,478);(537,465);(420,461);(414,471);(305,469);(296,474);(269,472);(269,365);(262,294)</t>
+  </si>
+  <si>
+    <t>(813,390);(813,354);(787,355);(775,370);(715,370);(708,379);(697,420);(672,415);(653,476);(553,478);(537,465);(420,461);(414,471);(305,469);(296,474);(269,472);(269,365);(262,294)</t>
+  </si>
+  <si>
+    <t>(488,428);(488,463);(420,461);(414,471);(305,469);(296,474);(269,472);(269,365);(279,328)</t>
+  </si>
+  <si>
+    <t>(750,475);(750,478);(553,478);(537,465);(420,461);(414,471);(305,469);(296,474);(269,472);(269,365);(279,328)</t>
+  </si>
+  <si>
+    <t>(746,383);(746,372);(715,370);(708,379);(697,420);(672,415);(653,476);(553,478);(537,465);(420,461);(414,471);(305,469);(296,474);(269,472);(269,365);(279,328)</t>
+  </si>
+  <si>
+    <t>(813,390);(813,354);(787,355);(775,370);(715,370);(708,379);(697,420);(672,415);(653,476);(553,478);(537,465);(420,461);(414,471);(305,469);(296,474);(269,472);(269,365);(279,328)</t>
+  </si>
+  <si>
+    <t>(750,475);(750,478);(553,478);(537,465);(420,461);(414,471);(374,469);(374,451)</t>
+  </si>
+  <si>
+    <t>(488,428);(488,463);(420,461);(414,471);(374,469);(374,451)</t>
+  </si>
+  <si>
+    <t>(746,383);(746,372);(715,370);(708,379);(697,420);(672,415);(653,476);(553,478);(537,465);(420,461);(414,471);(374,469);(374,451)</t>
+  </si>
+  <si>
+    <t>(813,390);(813,354);(787,355);(775,370);(715,370);(708,379);(697,420);(672,415);(653,476);(553,478);(537,465);(420,461);(414,471);(374,469);(374,451)</t>
+  </si>
+  <si>
+    <t>(750,475);(750,478);(553,478);(537,465);(488,428);(488,463)</t>
+  </si>
+  <si>
+    <t>(746,383);(746,372);(715,370);(708,379);(697,420);(672,415);(653,476);(553,478);(537,465);(488,428);(488,463)</t>
+  </si>
+  <si>
+    <t>(813,390);(813,354);(787,355);(775,370);(715,370);(708,379);(697,420);(672,415);(653,476);(553,478);(537,465);(488,428);(488,463)</t>
+  </si>
+  <si>
+    <t>(746,383);(746,372);(715,370);(708,379);(697,420);(672,415);(653,476);(750,478);(750,475)</t>
+  </si>
+  <si>
+    <t>(813,390);(813,354);(787,355);(775,370);(715,370);(708,379);(697,420);(672,415);(653,476);(750,478);(750,475)</t>
+  </si>
+  <si>
+    <t>(813,390);(813,354);(787,355);(775,370);(746,372);(746,383)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +202,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +228,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +510,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="165.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="190.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="143.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="151.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="126.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="109.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="92.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="76.1796875" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>